--- a/data/trans_orig/P6520-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6520-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF276DA9-D349-4BFA-AFE0-7EF7448F5A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76AB7009-5895-4FDE-944E-7BE7FA3FA3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{36C3ED6E-230E-4DA2-BF6D-44355A9D28BC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EE8FF099-E09C-468D-A617-04A40E14B6AC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
   <si>
     <t>Población según tener que trabajar los fines de semana durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,99%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>48,46%</t>
   </si>
   <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
   </si>
   <si>
     <t>48,53%</t>
   </si>
   <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
   </si>
   <si>
     <t>48,48%</t>
   </si>
   <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>26,02%</t>
   </si>
   <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
   </si>
   <si>
     <t>22,99%</t>
   </si>
   <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
   </si>
   <si>
     <t>25,16%</t>
   </si>
   <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>13,24%</t>
   </si>
   <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
   </si>
   <si>
     <t>12,49%</t>
   </si>
   <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
   </si>
   <si>
     <t>13,03%</t>
   </si>
   <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,28 +164,28 @@
     <t>12,27%</t>
   </si>
   <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
   </si>
   <si>
     <t>15,99%</t>
   </si>
   <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
   </si>
   <si>
     <t>13,33%</t>
   </si>
   <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
   </si>
   <si>
     <t>100%</t>
@@ -200,106 +200,106 @@
     <t>41,3%</t>
   </si>
   <si>
-    <t>47,26%</t>
+    <t>47,44%</t>
   </si>
   <si>
     <t>49,12%</t>
   </si>
   <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
   </si>
   <si>
     <t>45,89%</t>
   </si>
   <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
   </si>
   <si>
     <t>27,71%</t>
   </si>
   <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
   </si>
   <si>
     <t>21,73%</t>
   </si>
   <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
   </si>
   <si>
     <t>25,67%</t>
   </si>
   <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
   </si>
   <si>
     <t>15,2%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
   </si>
   <si>
     <t>12,29%</t>
   </si>
   <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
   </si>
   <si>
     <t>15,05%</t>
   </si>
   <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -308,100 +308,97 @@
     <t>54,75%</t>
   </si>
   <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
   </si>
   <si>
     <t>68,61%</t>
   </si>
   <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
   </si>
   <si>
     <t>60,55%</t>
   </si>
   <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
   </si>
   <si>
     <t>25,11%</t>
   </si>
   <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
   </si>
   <si>
     <t>17,1%</t>
   </si>
   <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
   </si>
   <si>
     <t>21,76%</t>
   </si>
   <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
   </si>
   <si>
     <t>13,94%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
   </si>
   <si>
     <t>8,39%</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
   </si>
   <si>
     <t>5,91%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
   </si>
   <si>
     <t>6,08%</t>
@@ -410,94 +407,91 @@
     <t>4,49%</t>
   </si>
   <si>
-    <t>8,22%</t>
+    <t>8,38%</t>
   </si>
   <si>
     <t>47,3%</t>
   </si>
   <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
   </si>
   <si>
     <t>54,57%</t>
   </si>
   <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
   </si>
   <si>
     <t>49,84%</t>
   </si>
   <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
   </si>
   <si>
     <t>26,82%</t>
   </si>
   <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
   </si>
   <si>
     <t>20,6%</t>
   </si>
   <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
+    <t>23,39%</t>
   </si>
   <si>
     <t>24,65%</t>
   </si>
   <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
   </si>
   <si>
     <t>14,89%</t>
   </si>
   <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
   </si>
   <si>
     <t>12,24%</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
   </si>
   <si>
     <t>13,96%</t>
   </si>
   <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>9,63%</t>
+    <t>9,62%</t>
   </si>
   <si>
     <t>12,54%</t>
@@ -506,16 +500,19 @@
     <t>12,59%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
   </si>
   <si>
     <t>11,55%</t>
   </si>
   <si>
-    <t>12,71%</t>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -930,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA191FA6-568C-4064-8FA6-F0935AA52E0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B07FCD9-222E-4D85-B176-8393D24EBE21}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1700,13 +1697,13 @@
         <v>80617</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1721,13 +1718,13 @@
         <v>25022</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -1736,13 +1733,13 @@
         <v>17145</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>38</v>
@@ -1751,13 +1748,13 @@
         <v>42167</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1825,13 +1822,13 @@
         <v>899124</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>534</v>
@@ -1840,13 +1837,13 @@
         <v>557802</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>1402</v>
@@ -1855,13 +1852,13 @@
         <v>1456926</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,13 +1873,13 @@
         <v>509953</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>205</v>
@@ -1891,13 +1888,13 @@
         <v>210615</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>694</v>
@@ -1906,13 +1903,13 @@
         <v>720568</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,13 +1924,13 @@
         <v>283055</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>119</v>
@@ -1942,13 +1939,13 @@
         <v>125077</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>386</v>
@@ -1957,13 +1954,13 @@
         <v>408132</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1978,13 +1975,13 @@
         <v>208939</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>121</v>
@@ -1993,13 +1990,13 @@
         <v>128739</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>317</v>
@@ -2008,13 +2005,13 @@
         <v>337678</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2070,7 +2067,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6520-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6520-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76AB7009-5895-4FDE-944E-7BE7FA3FA3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F461E4CD-E8C9-481C-9CBA-E749AA627115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EE8FF099-E09C-468D-A617-04A40E14B6AC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E8FEF4A-D49C-49DC-9713-15C53B1DB4AB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>48,46%</t>
   </si>
   <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
   </si>
   <si>
     <t>48,53%</t>
   </si>
   <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
   </si>
   <si>
     <t>48,48%</t>
   </si>
   <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,289 +104,292 @@
     <t>26,02%</t>
   </si>
   <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
   </si>
   <si>
     <t>22,99%</t>
   </si>
   <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
     <t>17,03%</t>
   </si>
   <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
     <t>12,29%</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
   </si>
   <si>
     <t>15,05%</t>
   </si>
   <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
     <t>11,62%</t>
   </si>
   <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>3,89%</t>
+    <t>3,98%</t>
   </si>
   <si>
     <t>9,3%</t>
@@ -395,76 +398,79 @@
     <t>5,91%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
   </si>
   <si>
     <t>6,08%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
   </si>
   <si>
     <t>47,3%</t>
   </si>
   <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
   </si>
   <si>
     <t>54,57%</t>
   </si>
   <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
   </si>
   <si>
     <t>49,84%</t>
   </si>
   <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
   </si>
   <si>
     <t>26,82%</t>
   </si>
   <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
   </si>
   <si>
     <t>20,6%</t>
   </si>
   <si>
-    <t>23,39%</t>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
   </si>
   <si>
     <t>24,65%</t>
   </si>
   <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
   </si>
   <si>
     <t>14,89%</t>
   </si>
   <si>
-    <t>13,3%</t>
+    <t>13,2%</t>
   </si>
   <si>
     <t>16,7%</t>
@@ -473,46 +479,40 @@
     <t>12,24%</t>
   </si>
   <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
+    <t>14,41%</t>
   </si>
   <si>
     <t>13,96%</t>
   </si>
   <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
   </si>
   <si>
     <t>12,59%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
+    <t>14,87%</t>
   </si>
   <si>
     <t>11,55%</t>
   </si>
   <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -927,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B07FCD9-222E-4D85-B176-8393D24EBE21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E645183-CDDB-42C9-8281-6C52D489D653}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1697,13 +1697,13 @@
         <v>80617</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,13 +1718,13 @@
         <v>25022</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -1733,13 +1733,13 @@
         <v>17145</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>38</v>
@@ -1748,13 +1748,13 @@
         <v>42167</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1822,13 +1822,13 @@
         <v>899124</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>534</v>
@@ -1837,13 +1837,13 @@
         <v>557802</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>1402</v>
@@ -1852,13 +1852,13 @@
         <v>1456926</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1873,13 +1873,13 @@
         <v>509953</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>205</v>
@@ -1888,13 +1888,13 @@
         <v>210615</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>694</v>
@@ -1903,13 +1903,13 @@
         <v>720568</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,13 +1924,13 @@
         <v>283055</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>119</v>
@@ -1939,13 +1939,13 @@
         <v>125077</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>386</v>
@@ -1954,13 +1954,13 @@
         <v>408132</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,13 +1975,13 @@
         <v>208939</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>121</v>
@@ -1990,10 +1990,10 @@
         <v>128739</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>155</v>

--- a/data/trans_orig/P6520-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6520-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F461E4CD-E8C9-481C-9CBA-E749AA627115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50879AB9-C9BD-43C0-B6D6-2808356C676D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E8FEF4A-D49C-49DC-9713-15C53B1DB4AB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{61DCCD34-CD34-40DB-B8BE-1171A6E1A81B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="161">
   <si>
     <t>Población según tener que trabajar los fines de semana durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,99%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>48,46%</t>
   </si>
   <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
   </si>
   <si>
     <t>48,53%</t>
   </si>
   <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
   </si>
   <si>
     <t>48,48%</t>
   </si>
   <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,25 +104,25 @@
     <t>26,02%</t>
   </si>
   <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
   </si>
   <si>
     <t>22,99%</t>
   </si>
   <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
   </si>
   <si>
     <t>25,16%</t>
   </si>
   <si>
-    <t>21,13%</t>
+    <t>21,25%</t>
   </si>
   <si>
     <t>29,19%</t>
@@ -134,385 +134,388 @@
     <t>13,24%</t>
   </si>
   <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
   </si>
   <si>
     <t>12,49%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
   </si>
   <si>
     <t>13,03%</t>
   </si>
   <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
     <t>10,31%</t>
   </si>
   <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
   </si>
   <si>
     <t>24,98%</t>
   </si>
   <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
+    <t>29,12%</t>
   </si>
   <si>
     <t>20,6%</t>
   </si>
   <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
   </si>
   <si>
     <t>24,65%</t>
   </si>
   <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
   </si>
   <si>
     <t>14,89%</t>
   </si>
   <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
   </si>
   <si>
     <t>12,24%</t>
   </si>
   <si>
-    <t>14,41%</t>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
   </si>
   <si>
     <t>13,96%</t>
   </si>
   <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
   </si>
   <si>
     <t>12,59%</t>
   </si>
   <si>
-    <t>14,87%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
   </si>
   <si>
     <t>11,55%</t>
   </si>
   <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
+    <t>12,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -927,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E645183-CDDB-42C9-8281-6C52D489D653}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ABA3B6-8608-42F5-9223-428DD5563374}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1942,10 +1945,10 @@
         <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>386</v>
@@ -1954,13 +1957,13 @@
         <v>408132</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,13 +1978,13 @@
         <v>208939</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>121</v>
@@ -1990,13 +1993,13 @@
         <v>128739</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>317</v>
@@ -2005,13 +2008,13 @@
         <v>337678</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,7 +2070,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6520-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6520-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50879AB9-C9BD-43C0-B6D6-2808356C676D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0A74578-9B69-4CEA-9AD5-06F86851A9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{61DCCD34-CD34-40DB-B8BE-1171A6E1A81B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8C5C4E39-0CBE-48CE-98E6-B812CCFCDB52}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -930,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ABA3B6-8608-42F5-9223-428DD5563374}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6CDD01-5255-4DC7-9196-47D5D4BDFC27}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1338,7 +1338,7 @@
         <v>749</v>
       </c>
       <c r="N9" s="7">
-        <v>781435</v>
+        <v>781434</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1389,7 +1389,7 @@
         <v>421</v>
       </c>
       <c r="N10" s="7">
-        <v>437074</v>
+        <v>437073</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1542,7 +1542,7 @@
         <v>1630</v>
       </c>
       <c r="N13" s="7">
-        <v>1702680</v>
+        <v>1702679</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1784,7 +1784,7 @@
         <v>278</v>
       </c>
       <c r="I18" s="7">
-        <v>290176</v>
+        <v>290177</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
